--- a/biology/Médecine/Henrik_Kehlet/Henrik_Kehlet.xlsx
+++ b/biology/Médecine/Henrik_Kehlet/Henrik_Kehlet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le professeur Henrik Kehlet, MD, PhD, ancien professeur de chirurgie à l'université de Copenhague, est aujourd’hui professeur en thérapie péri-opératoire à l’hôpital universitaire Rigshospitalet de Copenhague (Danemark)[1].
-Les travaux de recherche du professeur Kehlet, publiés dans plus de 800 articles scientifiques[1], se sont principalement concentrés sur la physiopathologie chirurgicale, la physiologie et le traitement de la douleur aiguë, le passage de la douleur aiguë vers la douleur chronique, la fatigue et les dysfonctionnements post-opératoires des organes.
-L’ensemble de ces recherches ont abouti à la création du concept de récupération rapide après chirurgie (RRAC), également appelé « Fast-Track-Chirurgie » ou en anglais : enhanced recovery after surgery (ERAS), l’objectif étant des « interventions chirurgicales sans douleur et sans risques »[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le professeur Henrik Kehlet, MD, PhD, ancien professeur de chirurgie à l'université de Copenhague, est aujourd’hui professeur en thérapie péri-opératoire à l’hôpital universitaire Rigshospitalet de Copenhague (Danemark).
+Les travaux de recherche du professeur Kehlet, publiés dans plus de 800 articles scientifiques, se sont principalement concentrés sur la physiopathologie chirurgicale, la physiologie et le traitement de la douleur aiguë, le passage de la douleur aiguë vers la douleur chronique, la fatigue et les dysfonctionnements post-opératoires des organes.
+L’ensemble de ces recherches ont abouti à la création du concept de récupération rapide après chirurgie (RRAC), également appelé « Fast-Track-Chirurgie » ou en anglais : enhanced recovery after surgery (ERAS), l’objectif étant des « interventions chirurgicales sans douleur et sans risques ».
 « Why is the patient in hospital today? » (Br J Anaesth. 1997) : selon Kehlet, les chirurgiens et médecins devraient tous les jours se poser la question de savoir pourquoi le patient est toujours hospitalisé.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henrik Kehlet et ses travaux sont primés et distingués dans le monde entier[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henrik Kehlet et ses travaux sont primés et distingués dans le monde entier :
 Honorary Doctor, université de Linköping, Suède, 1987
 Honorary Fellow, Royal College of Anaesthetists, England 1995
 Honorary Fellow, American College of Surgeons, US 2003
